--- a/assets/BOs/Zeus.xlsx
+++ b/assets/BOs/Zeus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\Zeus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED131D3-358B-4C8A-91E9-878980369378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E70A8D-D37F-459A-8828-603EE18137BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
-    <t>Zeus - Water Fast Heroic - Soka</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -653,9 +650,6 @@
     <t>Pre-queue Aegis Shield</t>
   </si>
   <si>
-    <t>Zeus - Athena - Hippeus / Hoplite</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -916,11 +910,6 @@
     <t>5 to Gold</t>
   </si>
   <si>
-    <t>at 5 on Gold: Wood villager builds Stable, House, then back to Wood
-at 9 on Gold: Favor villager builds Military Barracks, then back to Favor
-at 9 on Gold: Wood villager builds House, then back to Wood</t>
-  </si>
-  <si>
     <t>Make Hippeus
 Make Hoplites</t>
   </si>
@@ -947,11 +936,6 @@
   <si>
     <t xml:space="preserve">8 to Food (second food spot + granary) 
 </t>
-  </si>
-  <si>
-    <t>at 8 on Food: Favor villager builds House, then back to Favor
-at 11 on Food: Gold villager builds Military Barracks, then back to Gold
-at 12 on Food: Food villager builds House, then back to Food</t>
   </si>
   <si>
     <r>
@@ -1082,6 +1066,22 @@
   </si>
   <si>
     <t>After: depends on enemy</t>
+  </si>
+  <si>
+    <t>at 8 on Food: Favor villager builds House, then back to Favor
+at 11 on Food: Gold villager builds Military Academy, then back to Gold
+at 12 on Food: Food villager builds House, then back to Food</t>
+  </si>
+  <si>
+    <t>at 5 on Gold: Wood villager builds Stable, House, then back to Wood
+at 9 on Gold: Favor villager builds Military Academy, then back to Favor
+at 9 on Gold: Wood villager builds House, then back to Wood</t>
+  </si>
+  <si>
+    <t>Water Fast Heroic - By Soka</t>
+  </si>
+  <si>
+    <t>Athena - Hippeus / Hoplite</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1243,24 +1243,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,24 +1492,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1519,210 +1517,210 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,25 +1730,25 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1758,7 +1756,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1774,10 +1772,10 @@
       <c r="D28" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1798,245 +1796,245 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="196.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17" t="s">
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="15" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="19" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="D17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="C18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="15" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="C19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="15" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/BOs/Zeus.xlsx
+++ b/assets/BOs/Zeus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E70A8D-D37F-459A-8828-603EE18137BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B7820D-02F2-418E-8761-0A64F8863AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Archaic</t>
   </si>
@@ -1083,12 +1083,18 @@
   <si>
     <t>Athena - Hippeus / Hoplite</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SKF3cgNDTLY&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3FqX0fF8Dbs&amp;ab_channel=DeitiesofDeath</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1187,6 +1193,22 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1223,10 +1245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1259,8 +1282,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1479,8 +1507,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1520,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="15"/>
@@ -1760,7 +1788,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1787,16 +1817,19 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A21:D21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1" tooltip="https://www.youtube.com/watch?v=3FqX0fF8Dbs&amp;ab_channel=DeitiesofDeath" xr:uid="{82A30F12-9D63-43B1-B75F-C6F6D32DF7F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A563DD6-6486-426D-BCD9-71802D6DF5D1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,6 +2069,11 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -2043,6 +2081,9 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" tooltip="https://www.youtube.com/watch?v=SKF3cgNDTLY&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{E6CEE5FE-C4E3-4BA0-B0D3-05CF94EDD1E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/BOs/Zeus.xlsx
+++ b/assets/BOs/Zeus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B7820D-02F2-418E-8761-0A64F8863AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775C55C-8E18-497B-A246-D09926745A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1078,16 +1078,16 @@
 at 9 on Gold: Wood villager builds House, then back to Wood</t>
   </si>
   <si>
-    <t>Water Fast Heroic - By Soka</t>
-  </si>
-  <si>
-    <t>Athena - Hippeus / Hoplite</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=SKF3cgNDTLY&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3FqX0fF8Dbs&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>OUTDATED - Water Fast Heroic - By Soka</t>
+  </si>
+  <si>
+    <t>OUTDATED - Athena - Hippeus / Hoplite</t>
   </si>
 </sst>
 </file>
@@ -1274,16 +1274,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1507,8 +1507,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1520,20 +1520,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1666,12 +1666,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1698,12 +1698,12 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1732,12 +1732,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1758,12 +1758,12 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>93</v>
+      <c r="A27" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1802,10 +1802,10 @@
       <c r="D28" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A563DD6-6486-426D-BCD9-71802D6DF5D1}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1839,20 +1839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1945,12 +1945,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1972,12 +1972,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -2070,8 +2070,8 @@
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>92</v>
+      <c r="A24" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/assets/BOs/Zeus.xlsx
+++ b/assets/BOs/Zeus.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678C15CB-5E46-41A9-A60A-30AD3E3279D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B775EF-4079-4EF4-89FC-EE4B75B924CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
     <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="193">
   <si>
     <t>Archaic</t>
   </si>
@@ -2397,12 +2398,184 @@
   <si>
     <t>Standard Water - By Mosca And Cragghack</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial 4 vills to food </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to gold - Research Hand Axe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 more to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>From here rally all to food. Research Pickaxe after the 5th food villager is trained</t>
+  </si>
+  <si>
+    <t>Build temple when you have 150 gold 150 wood (Option: You can forcedrop gold when there is 2850 to start to build the temple). 
+The other gold mine villager builds a house when you have 50 wood</t>
+  </si>
+  <si>
+    <t>7 / 4 / 3 / 1</t>
+  </si>
+  <si>
+    <t>Option one - army focus: Train Jason. On advance make a stable and barracks and start producing as fast as possible.
+New villagers are ralled to gold until 7, then more to food. Train Hercules as fast as you can. Aim for harrasment with your army and a good use of restoration. Bolt the enemy myth unit or hero.</t>
+  </si>
+  <si>
+    <t>5 / 5 / 4 / 2</t>
+  </si>
+  <si>
+    <t>Option two - early Minotaur raiding: Get Jason. On advance get Labyrinth of Minos (Minotaur upgrade).
+Send the minotaur to your base and the upgrade should be in just before you are raiding his villagers.
+New villagers are ralled to gold until 7. Train Hercules as fast as possible. Follow up with a barracks and stable.
+Alternate new villagers to food and gold.
+Train minotaurs whenever you have enough favor. Follow it up with hoplites, hippeus and heroes.</t>
+  </si>
+  <si>
+    <t>3 / 6/ 6 / 0</t>
+  </si>
+  <si>
+    <t>Option three - 2nd TC: Get Jason - Then shift Transition into 2nd tc.
+Make the TC with all of the gold villagers.
+While you are building the TC new villagers are rallied to hunt or other food in base.
+Also move 3 of the wood villagers to food. You need food to produce from two TCs.</t>
+  </si>
+  <si>
+    <t>5+ / 3 / 0 / 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option three - 2nd TC: While you are building the TC new villagers are rallied to hunt or other food in base.
+Move 2 of the wood villagers to food and one to favor. You need food to produce from two TCs.
+</t>
+  </si>
+  <si>
+    <t>Pickaxe and Hand Axe 16 pop BO - By Cragg Hacks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2681,6 +2854,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2721,7 +2904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2776,6 +2959,22 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2794,25 +2993,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3036,25 +3228,25 @@
       <selection sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3062,7 +3254,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
@@ -3074,7 +3266,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -3084,7 +3276,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="21" t="s">
         <v>99</v>
       </c>
@@ -3094,7 +3286,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="21" t="s">
         <v>101</v>
       </c>
@@ -3104,7 +3296,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="21" t="s">
         <v>103</v>
       </c>
@@ -3116,7 +3308,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="21" t="s">
         <v>105</v>
       </c>
@@ -3128,7 +3320,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="21" t="s">
         <v>107</v>
       </c>
@@ -3140,31 +3332,31 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="21" t="s">
         <v>111</v>
       </c>
@@ -3174,7 +3366,7 @@
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="21" t="s">
         <v>113</v>
       </c>
@@ -3186,7 +3378,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="21"/>
       <c r="B17" s="6"/>
       <c r="C17" s="22" t="s">
@@ -3194,26 +3386,26 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="21"/>
       <c r="B18" s="6"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="21" t="s">
         <v>118</v>
       </c>
@@ -3231,13 +3423,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="21"/>
       <c r="C23" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="21" t="s">
         <v>123</v>
       </c>
@@ -3247,10 +3439,10 @@
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="18"/>
@@ -3297,25 +3489,25 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="18">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="17.399999999999999">
+      <c r="A1" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.6">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3323,7 +3515,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="72">
+    <row r="4" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="69">
       <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
@@ -3333,7 +3525,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="5" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A5" s="21" t="s">
         <v>127</v>
       </c>
@@ -3343,7 +3535,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="6" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A6" s="21" t="s">
         <v>129</v>
       </c>
@@ -3355,7 +3547,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="7" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A7" s="21" t="s">
         <v>132</v>
       </c>
@@ -3365,7 +3557,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.75">
+    <row r="8" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A8" s="21" t="s">
         <v>134</v>
       </c>
@@ -7474,7 +7666,7 @@
       <c r="XEW8" s="18"/>
       <c r="XFA8" s="18"/>
     </row>
-    <row r="9" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="9" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A9" s="21" t="s">
         <v>138</v>
       </c>
@@ -7484,7 +7676,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="10" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A10" s="21" t="s">
         <v>139</v>
       </c>
@@ -7493,27 +7685,27 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
+    <row r="11" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A11" s="21"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
+    <row r="12" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A12" s="21"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.75">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.6">
+      <c r="A13" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A14" s="21" t="s">
         <v>141</v>
       </c>
@@ -7525,7 +7717,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="15" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="26" t="s">
@@ -7533,32 +7725,32 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
+    <row r="16" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="26"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="25"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:4" ht="15.6">
+      <c r="A18" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="115.5">
+    <row r="20" spans="1:4" ht="118.8">
       <c r="A20" s="21" t="s">
         <v>146</v>
       </c>
@@ -7570,7 +7762,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63.75">
+    <row r="21" spans="1:4" ht="66">
       <c r="A21" s="21"/>
       <c r="B21" s="16"/>
       <c r="C21" s="28" t="s">
@@ -7578,7 +7770,7 @@
       </c>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="21" t="s">
         <v>150</v>
       </c>
@@ -7586,7 +7778,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="21" t="s">
         <v>152</v>
       </c>
@@ -7638,131 +7830,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1D40B8-D760-4C06-A1F0-0583701B8655}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="1:4" ht="120.75">
-      <c r="A4" s="40" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4" ht="105.6">
+      <c r="A4" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="40" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="40" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" ht="285.75">
-      <c r="A8" s="40" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="285.60000000000002">
+      <c r="A8" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="40"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="36" t="s">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" ht="156.75">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:4" ht="151.80000000000001">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="85.5">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="1:4" ht="82.8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="36" t="s">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7776,6 +7965,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190BF714-5ED2-4F36-BE8F-E42930651750}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.399999999999999">
+      <c r="A1" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="49"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.6">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.6">
+      <c r="A4" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6">
+      <c r="A5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6">
+      <c r="A6" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6">
+      <c r="A7" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6">
+      <c r="A8" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="345.6">
+      <c r="A9" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6">
+      <c r="A10" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="49"/>
+    </row>
+    <row r="11" spans="1:2" ht="409.6">
+      <c r="A11" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.6">
+      <c r="A12" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.6">
+      <c r="A13" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="360">
+      <c r="A14" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7786,31 +8107,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7818,7 +8139,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7830,7 +8151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7842,7 +8163,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -7852,7 +8173,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7862,7 +8183,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7872,7 +8193,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -7882,7 +8203,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7894,7 +8215,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -7904,7 +8225,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7918,7 +8239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -7930,7 +8251,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -7940,15 +8261,15 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:4" ht="15.6">
+      <c r="A15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -7960,7 +8281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="15.6">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -7972,15 +8293,15 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:4" ht="15.6">
+      <c r="A18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -7992,7 +8313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="15.6">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -8006,15 +8327,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -8026,21 +8347,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:4" ht="15.6">
+      <c r="A24" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -8054,7 +8375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
+    <row r="26" spans="1:4" ht="13.8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8062,7 +8383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
+    <row r="27" spans="1:4" ht="13.8">
       <c r="A27" s="14" t="s">
         <v>91</v>
       </c>
@@ -8070,17 +8391,17 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.25">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="34"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+    <row r="35" spans="1:4" ht="13.2">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8099,7 +8420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A563DD6-6486-426D-BCD9-71802D6DF5D1}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -8107,29 +8428,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="196.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="196.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8137,7 +8458,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -8147,7 +8468,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -8157,7 +8478,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -8167,7 +8488,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -8177,7 +8498,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -8187,7 +8508,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
@@ -8197,7 +8518,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
@@ -8209,7 +8530,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
@@ -8219,15 +8540,15 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" ht="15">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>66</v>
@@ -8239,22 +8560,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="11"/>
       <c r="B14" s="6"/>
       <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:4" ht="15.6">
+      <c r="A15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" ht="15">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="12" t="s">
@@ -8262,7 +8583,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -8274,7 +8595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5">
+    <row r="18" spans="1:4" ht="41.4">
       <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
@@ -8288,7 +8609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="43.5">
+    <row r="19" spans="1:4" ht="41.4">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -8302,7 +8623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -8314,7 +8635,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -8324,7 +8645,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -8336,7 +8657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>

--- a/assets/BOs/Zeus.xlsx
+++ b/assets/BOs/Zeus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B775EF-4079-4EF4-89FC-EE4B75B924CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E68E8C-763E-477E-A27A-6D8B0D06E162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
@@ -2568,7 +2568,7 @@
 </t>
   </si>
   <si>
-    <t>Pickaxe and Hand Axe 16 pop BO - By Cragg Hacks</t>
+    <t>Pickaxe and Hand Axe 16 pop BO - By CraggHack</t>
   </si>
 </sst>
 </file>
@@ -2904,7 +2904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2975,6 +2975,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2996,12 +3000,6 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3228,25 +3226,25 @@
       <selection sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3252,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
@@ -3266,7 +3264,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
@@ -3276,7 +3274,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="21" t="s">
         <v>99</v>
       </c>
@@ -3286,7 +3284,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="21" t="s">
         <v>101</v>
       </c>
@@ -3296,7 +3294,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="21" t="s">
         <v>103</v>
       </c>
@@ -3308,7 +3306,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="21" t="s">
         <v>105</v>
       </c>
@@ -3320,7 +3318,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="21" t="s">
         <v>107</v>
       </c>
@@ -3332,31 +3330,31 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="21" t="s">
         <v>111</v>
       </c>
@@ -3366,7 +3364,7 @@
       </c>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="21" t="s">
         <v>113</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="21"/>
       <c r="B17" s="6"/>
       <c r="C17" s="22" t="s">
@@ -3386,26 +3384,26 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="21"/>
       <c r="B18" s="6"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:4" ht="13.8">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="21" t="s">
         <v>118</v>
       </c>
@@ -3423,13 +3421,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="21"/>
       <c r="C23" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="21" t="s">
         <v>123</v>
       </c>
@@ -3439,10 +3437,10 @@
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="18"/>
@@ -3489,25 +3487,25 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="17.399999999999999">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="18">
+      <c r="A1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.6">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.75">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3515,7 +3513,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="69">
+    <row r="4" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="72">
       <c r="A4" s="21" t="s">
         <v>94</v>
       </c>
@@ -3525,7 +3523,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="5" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A5" s="21" t="s">
         <v>127</v>
       </c>
@@ -3535,7 +3533,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="6" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A6" s="21" t="s">
         <v>129</v>
       </c>
@@ -3547,7 +3545,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="7" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A7" s="21" t="s">
         <v>132</v>
       </c>
@@ -3557,7 +3555,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
+    <row r="8" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.75">
       <c r="A8" s="21" t="s">
         <v>134</v>
       </c>
@@ -7666,7 +7664,7 @@
       <c r="XEW8" s="18"/>
       <c r="XFA8" s="18"/>
     </row>
-    <row r="9" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="9" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A9" s="21" t="s">
         <v>138</v>
       </c>
@@ -7676,7 +7674,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="10" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A10" s="21" t="s">
         <v>139</v>
       </c>
@@ -7685,27 +7683,27 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="11" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
       <c r="A11" s="21"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="12" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
       <c r="A12" s="21"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.6">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15.75">
+      <c r="A13" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A14" s="21" t="s">
         <v>141</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="15" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="26" t="s">
@@ -7725,32 +7723,32 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="13.8">
+    <row r="16" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="14.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="26"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="25"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-    </row>
-    <row r="19" spans="1:4" ht="13.8">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="118.8">
+    <row r="20" spans="1:4" ht="115.5">
       <c r="A20" s="21" t="s">
         <v>146</v>
       </c>
@@ -7762,7 +7760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="66">
+    <row r="21" spans="1:4" ht="63.75">
       <c r="A21" s="21"/>
       <c r="B21" s="16"/>
       <c r="C21" s="28" t="s">
@@ -7770,7 +7768,7 @@
       </c>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" ht="13.8">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="21" t="s">
         <v>150</v>
       </c>
@@ -7778,7 +7776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="21" t="s">
         <v>152</v>
       </c>
@@ -7834,23 +7832,23 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="30" t="s">
@@ -7860,7 +7858,7 @@
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="105.6">
+    <row r="4" spans="1:4" ht="120.75">
       <c r="A4" s="30" t="s">
         <v>157</v>
       </c>
@@ -7872,7 +7870,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="30" t="s">
         <v>160</v>
       </c>
@@ -7882,7 +7880,7 @@
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="30" t="s">
         <v>162</v>
       </c>
@@ -7892,7 +7890,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="30" t="s">
         <v>163</v>
       </c>
@@ -7902,7 +7900,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" ht="285.60000000000002">
+    <row r="8" spans="1:4" ht="285.75">
       <c r="A8" s="30" t="s">
         <v>164</v>
       </c>
@@ -7914,15 +7912,15 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" spans="1:4" ht="151.80000000000001">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:4" ht="156.75">
       <c r="A10" s="33"/>
       <c r="B10" s="35" t="s">
         <v>168</v>
@@ -7934,7 +7932,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="82.8">
+    <row r="11" spans="1:4" ht="85.5">
       <c r="A11" s="30"/>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
@@ -7942,13 +7940,13 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="19"/>
@@ -7966,125 +7964,117 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190BF714-5ED2-4F36-BE8F-E42930651750}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="49"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.6">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.6">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="345.6">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:2" ht="345.75">
+      <c r="A9" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="49"/>
-    </row>
-    <row r="11" spans="1:2" ht="409.6">
-      <c r="A11" s="48" t="s">
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" spans="1:2" ht="409.5">
+      <c r="A11" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="409.6">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:2" ht="409.5">
+      <c r="A12" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.6">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:2" ht="409.5">
+      <c r="A13" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="37" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="360">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:2" ht="375">
+      <c r="A14" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="37" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8107,31 +8097,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8139,7 +8129,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8151,7 +8141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -8163,7 +8153,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -8173,7 +8163,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -8183,7 +8173,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -8193,7 +8183,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -8203,7 +8193,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -8215,7 +8205,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -8225,7 +8215,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="13.8">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -8239,7 +8229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -8251,7 +8241,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -8261,15 +8251,15 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -8281,7 +8271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6">
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -8293,15 +8283,15 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-    </row>
-    <row r="19" spans="1:4" ht="13.8">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -8313,7 +8303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6">
+    <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -8327,15 +8317,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.6">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -8347,21 +8337,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6">
+    <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.6">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -8375,7 +8365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8383,7 +8373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="14" t="s">
         <v>91</v>
       </c>
@@ -8391,17 +8381,17 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="13.8">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="13.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+    <row r="35" spans="1:4" ht="12.75">
+      <c r="A35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8428,29 +8418,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="196.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="196.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8458,7 +8448,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -8468,7 +8458,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -8478,7 +8468,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -8488,7 +8478,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -8498,7 +8488,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -8508,7 +8498,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
@@ -8518,7 +8508,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
@@ -8530,7 +8520,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
@@ -8540,15 +8530,15 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>66</v>
@@ -8560,22 +8550,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="11"/>
       <c r="B14" s="6"/>
       <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="12" t="s">
@@ -8583,7 +8573,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -8595,7 +8585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="41.4">
+    <row r="18" spans="1:4" ht="43.5">
       <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
@@ -8609,7 +8599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="41.4">
+    <row r="19" spans="1:4" ht="43.5">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -8623,7 +8613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -8635,7 +8625,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="13.8">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -8645,7 +8635,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="13.8">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -8657,7 +8647,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
